--- a/data/data_ujian/orders.xlsx
+++ b/data/data_ujian/orders.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\JNE_Data_Analytics_PySQL\data\data_ujian\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB116C21-4E57-483C-A8EE-63CA1C0E8991}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCE28485-88D3-4CD3-9C81-775A1B9D5395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -372,16 +372,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A472" workbookViewId="0">
+      <selection activeCell="G487" sqref="G487"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="9" width="15.08984375"/>
+    <col min="1" max="4" width="15.08984375"/>
+    <col min="5" max="5" width="18.453125" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+    <col min="7" max="7" width="22.1796875" customWidth="1"/>
+    <col min="8" max="9" width="15.08984375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -410,7 +414,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>21</v>
       </c>
@@ -435,7 +439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>24</v>
       </c>
@@ -460,7 +464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>26</v>
       </c>
@@ -485,7 +489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>33</v>
       </c>
@@ -510,7 +514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>34</v>
       </c>
@@ -535,7 +539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>36</v>
       </c>
@@ -560,7 +564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>54</v>
       </c>
@@ -585,7 +589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>63</v>
       </c>
@@ -610,7 +614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>67</v>
       </c>
@@ -635,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>71</v>
       </c>
@@ -660,7 +664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>72</v>
       </c>
@@ -685,7 +689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>73</v>
       </c>
@@ -710,7 +714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>75</v>
       </c>
@@ -735,7 +739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>77</v>
       </c>
@@ -760,7 +764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>85</v>
       </c>
@@ -785,7 +789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>90</v>
       </c>
@@ -810,7 +814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>96</v>
       </c>
@@ -835,7 +839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>98</v>
       </c>
@@ -860,7 +864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>101</v>
       </c>
@@ -885,7 +889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>115</v>
       </c>
@@ -910,7 +914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>121</v>
       </c>
@@ -935,7 +939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>124</v>
       </c>
@@ -960,7 +964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>128</v>
       </c>
@@ -985,7 +989,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>129</v>
       </c>
@@ -1010,7 +1014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>130</v>
       </c>
@@ -1035,7 +1039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
         <v>138</v>
       </c>
@@ -1060,7 +1064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>146</v>
       </c>
@@ -1085,7 +1089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A29" s="5">
         <v>152</v>
       </c>
@@ -1110,7 +1114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>155</v>
       </c>
@@ -1135,7 +1139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A31" s="5">
         <v>158</v>
       </c>
@@ -1160,7 +1164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>161</v>
       </c>
@@ -1185,7 +1189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A33" s="5">
         <v>163</v>
       </c>
@@ -1210,7 +1214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>164</v>
       </c>
@@ -1235,7 +1239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A35" s="5">
         <v>165</v>
       </c>
@@ -1260,7 +1264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>166</v>
       </c>
@@ -1285,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A37" s="5">
         <v>167</v>
       </c>
@@ -1310,7 +1314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>174</v>
       </c>
@@ -1335,7 +1339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>176</v>
       </c>
@@ -1360,7 +1364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>179</v>
       </c>
@@ -1385,7 +1389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A41" s="5">
         <v>185</v>
       </c>
@@ -1410,7 +1414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>190</v>
       </c>
@@ -1435,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A43" s="5">
         <v>210</v>
       </c>
@@ -1460,7 +1464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>217</v>
       </c>
@@ -1485,7 +1489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A45" s="5">
         <v>218</v>
       </c>
@@ -1510,7 +1514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>224</v>
       </c>
@@ -1535,7 +1539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A47" s="5">
         <v>226</v>
       </c>
@@ -1560,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>235</v>
       </c>
@@ -1585,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A49" s="5">
         <v>237</v>
       </c>
@@ -1610,7 +1614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>262</v>
       </c>
@@ -1635,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A51" s="5">
         <v>279</v>
       </c>
@@ -1660,7 +1664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>287</v>
       </c>
@@ -1685,7 +1689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A53" s="5">
         <v>288</v>
       </c>
@@ -1710,7 +1714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>296</v>
       </c>
@@ -1735,7 +1739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A55" s="5">
         <v>303</v>
       </c>
@@ -1760,7 +1764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>306</v>
       </c>
@@ -1785,7 +1789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A57" s="5">
         <v>313</v>
       </c>
@@ -1810,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>318</v>
       </c>
@@ -1835,7 +1839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A59" s="5">
         <v>327</v>
       </c>
@@ -1860,7 +1864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>348</v>
       </c>
@@ -1885,7 +1889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A61" s="5">
         <v>354</v>
       </c>
@@ -1910,7 +1914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>355</v>
       </c>
@@ -1935,7 +1939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A63" s="5">
         <v>356</v>
       </c>
@@ -1960,7 +1964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>367</v>
       </c>
@@ -1985,7 +1989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A65" s="5">
         <v>383</v>
       </c>
@@ -2010,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>384</v>
       </c>
@@ -2035,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A67" s="5">
         <v>385</v>
       </c>
@@ -2060,7 +2064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>390</v>
       </c>
@@ -2085,7 +2089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A69" s="5">
         <v>394</v>
       </c>
@@ -2110,7 +2114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>401</v>
       </c>
@@ -2135,7 +2139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A71" s="5">
         <v>402</v>
       </c>
@@ -2160,7 +2164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>403</v>
       </c>
@@ -2185,7 +2189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A73" s="5">
         <v>406</v>
       </c>
@@ -2210,7 +2214,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>423</v>
       </c>
@@ -2235,7 +2239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A75" s="5">
         <v>435</v>
       </c>
@@ -2260,7 +2264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>436</v>
       </c>
@@ -2285,7 +2289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A77" s="5">
         <v>438</v>
       </c>
@@ -2310,7 +2314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>440</v>
       </c>
@@ -2335,7 +2339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A79" s="5">
         <v>441</v>
       </c>
@@ -2360,7 +2364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>442</v>
       </c>
@@ -2385,7 +2389,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A81" s="5">
         <v>453</v>
       </c>
@@ -2410,7 +2414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>454</v>
       </c>
@@ -2435,7 +2439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A83" s="5">
         <v>455</v>
       </c>
@@ -2460,7 +2464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>463</v>
       </c>
@@ -2485,7 +2489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A85" s="5">
         <v>471</v>
       </c>
@@ -2510,7 +2514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>479</v>
       </c>
@@ -2535,7 +2539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A87" s="5">
         <v>484</v>
       </c>
@@ -2560,7 +2564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>487</v>
       </c>
@@ -2585,7 +2589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A89" s="5">
         <v>488</v>
       </c>
@@ -2610,7 +2614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>490</v>
       </c>
@@ -2635,7 +2639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A91" s="5">
         <v>497</v>
       </c>
@@ -2660,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>503</v>
       </c>
@@ -2685,7 +2689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A93" s="5">
         <v>506</v>
       </c>
@@ -2710,7 +2714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>520</v>
       </c>
@@ -2735,7 +2739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A95" s="5">
         <v>521</v>
       </c>
@@ -2760,7 +2764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>561</v>
       </c>
@@ -2785,7 +2789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A97" s="5">
         <v>563</v>
       </c>
@@ -2810,7 +2814,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>564</v>
       </c>
@@ -2835,7 +2839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A99" s="5">
         <v>569</v>
       </c>
@@ -2860,7 +2864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>582</v>
       </c>
@@ -2885,7 +2889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A101" s="5">
         <v>585</v>
       </c>
@@ -2910,7 +2914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>586</v>
       </c>
@@ -2935,7 +2939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A103" s="5">
         <v>592</v>
       </c>
@@ -2960,7 +2964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>593</v>
       </c>
@@ -2985,7 +2989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A105" s="5">
         <v>608</v>
       </c>
@@ -3010,7 +3014,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>610</v>
       </c>
@@ -3035,7 +3039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A107" s="5">
         <v>616</v>
       </c>
@@ -3060,7 +3064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>617</v>
       </c>
@@ -3085,7 +3089,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A109" s="5">
         <v>627</v>
       </c>
@@ -3110,7 +3114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>629</v>
       </c>
@@ -3135,7 +3139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A111" s="5">
         <v>659</v>
       </c>
@@ -3160,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>670</v>
       </c>
@@ -3185,7 +3189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A113" s="5">
         <v>686</v>
       </c>
@@ -3210,7 +3214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>687</v>
       </c>
@@ -3235,7 +3239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A115" s="5">
         <v>701</v>
       </c>
@@ -3260,7 +3264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>702</v>
       </c>
@@ -3285,7 +3289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A117" s="5">
         <v>706</v>
       </c>
@@ -3310,7 +3314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>718</v>
       </c>
@@ -3335,7 +3339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A119" s="5">
         <v>719</v>
       </c>
@@ -3360,7 +3364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>722</v>
       </c>
@@ -3385,7 +3389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A121" s="5">
         <v>732</v>
       </c>
@@ -3410,7 +3414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>733</v>
       </c>
@@ -3435,7 +3439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A123" s="5">
         <v>734</v>
       </c>
@@ -3460,7 +3464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>758</v>
       </c>
@@ -3485,7 +3489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A125" s="5">
         <v>761</v>
       </c>
@@ -3510,7 +3514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>763</v>
       </c>
@@ -3535,7 +3539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A127" s="5">
         <v>767</v>
       </c>
@@ -3560,7 +3564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>771</v>
       </c>
@@ -3585,7 +3589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A129" s="5">
         <v>772</v>
       </c>
@@ -3610,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>781</v>
       </c>
@@ -3635,7 +3639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A131" s="5">
         <v>796</v>
       </c>
@@ -3660,7 +3664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>797</v>
       </c>
@@ -3685,7 +3689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A133" s="5">
         <v>800</v>
       </c>
@@ -3710,7 +3714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>805</v>
       </c>
@@ -3735,7 +3739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A135" s="5">
         <v>826</v>
       </c>
@@ -3760,7 +3764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>835</v>
       </c>
@@ -3785,7 +3789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A137" s="5">
         <v>839</v>
       </c>
@@ -3810,7 +3814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>844</v>
       </c>
@@ -3835,7 +3839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A139" s="5">
         <v>853</v>
       </c>
@@ -3860,7 +3864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>863</v>
       </c>
@@ -3885,7 +3889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A141" s="5">
         <v>878</v>
       </c>
@@ -3910,7 +3914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>879</v>
       </c>
@@ -3935,7 +3939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A143" s="5">
         <v>883</v>
       </c>
@@ -3960,7 +3964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>888</v>
       </c>
@@ -3985,7 +3989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A145" s="5">
         <v>894</v>
       </c>
@@ -4010,7 +4014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>896</v>
       </c>
@@ -4035,7 +4039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A147" s="5">
         <v>897</v>
       </c>
@@ -4060,7 +4064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>903</v>
       </c>
@@ -4085,7 +4089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A149" s="5">
         <v>904</v>
       </c>
@@ -4110,7 +4114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>908</v>
       </c>
@@ -4135,7 +4139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A151" s="5">
         <v>911</v>
       </c>
@@ -4160,7 +4164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>914</v>
       </c>
@@ -4185,7 +4189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A153" s="5">
         <v>918</v>
       </c>
@@ -4210,7 +4214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>919</v>
       </c>
@@ -4235,7 +4239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A155" s="5">
         <v>923</v>
       </c>
@@ -4260,7 +4264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>936</v>
       </c>
@@ -4285,7 +4289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A157" s="5">
         <v>946</v>
       </c>
@@ -4310,7 +4314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>947</v>
       </c>
@@ -4335,7 +4339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A159" s="5">
         <v>948</v>
       </c>
@@ -4360,7 +4364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>951</v>
       </c>
@@ -4385,7 +4389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A161" s="5">
         <v>952</v>
       </c>
@@ -4410,7 +4414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>956</v>
       </c>
@@ -4435,7 +4439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A163" s="5">
         <v>959</v>
       </c>
@@ -4460,7 +4464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>980</v>
       </c>
@@ -4485,7 +4489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A165" s="5">
         <v>982</v>
       </c>
@@ -4510,7 +4514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>986</v>
       </c>
@@ -4535,7 +4539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A167" s="5">
         <v>995</v>
       </c>
@@ -4560,7 +4564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>997</v>
       </c>
@@ -4585,7 +4589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="169" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A169" s="5">
         <v>998</v>
       </c>
@@ -4610,7 +4614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>1016</v>
       </c>
@@ -4635,7 +4639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A171" s="5">
         <v>1018</v>
       </c>
@@ -4660,7 +4664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>1025</v>
       </c>
@@ -4685,7 +4689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A173" s="5">
         <v>1032</v>
       </c>
@@ -4710,7 +4714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>1033</v>
       </c>
@@ -4735,7 +4739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A175" s="5">
         <v>1041</v>
       </c>
@@ -4760,7 +4764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>1043</v>
       </c>
@@ -4785,7 +4789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A177" s="5">
         <v>1052</v>
       </c>
@@ -4810,7 +4814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>1070</v>
       </c>
@@ -4835,7 +4839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A179" s="5">
         <v>1074</v>
       </c>
@@ -4860,7 +4864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>1075</v>
       </c>
@@ -4885,7 +4889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A181" s="5">
         <v>1077</v>
       </c>
@@ -4910,7 +4914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>1080</v>
       </c>
@@ -4935,7 +4939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A183" s="5">
         <v>1102</v>
       </c>
@@ -4960,7 +4964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>1103</v>
       </c>
@@ -4985,7 +4989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A185" s="5">
         <v>1107</v>
       </c>
@@ -5010,7 +5014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>1115</v>
       </c>
@@ -5035,7 +5039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A187" s="5">
         <v>1117</v>
       </c>
@@ -5060,7 +5064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>1123</v>
       </c>
@@ -5085,7 +5089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A189" s="5">
         <v>1124</v>
       </c>
@@ -5110,7 +5114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>1129</v>
       </c>
@@ -5135,7 +5139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A191" s="5">
         <v>1134</v>
       </c>
@@ -5160,7 +5164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>1143</v>
       </c>
@@ -5185,7 +5189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A193" s="5">
         <v>1152</v>
       </c>
@@ -5210,7 +5214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>1178</v>
       </c>
@@ -5235,7 +5239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A195" s="5">
         <v>1179</v>
       </c>
@@ -5260,7 +5264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>1198</v>
       </c>
@@ -5285,7 +5289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A197" s="5">
         <v>1211</v>
       </c>
@@ -5310,7 +5314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>1212</v>
       </c>
@@ -5335,7 +5339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A199" s="5">
         <v>1220</v>
       </c>
@@ -5360,7 +5364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>1221</v>
       </c>
@@ -5385,7 +5389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A201" s="5">
         <v>1231</v>
       </c>
@@ -5410,7 +5414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>1232</v>
       </c>
@@ -5435,7 +5439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A203" s="5">
         <v>1244</v>
       </c>
@@ -5460,7 +5464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>1246</v>
       </c>
@@ -5485,7 +5489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A205" s="5">
         <v>1273</v>
       </c>
@@ -5510,7 +5514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>1276</v>
       </c>
@@ -5535,7 +5539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A207" s="5">
         <v>1285</v>
       </c>
@@ -5560,7 +5564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="208" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>1292</v>
       </c>
@@ -5585,7 +5589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A209" s="5">
         <v>1296</v>
       </c>
@@ -5610,7 +5614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>1303</v>
       </c>
@@ -5635,7 +5639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A211" s="5">
         <v>1313</v>
       </c>
@@ -5660,7 +5664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>1319</v>
       </c>
@@ -5685,7 +5689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A213" s="5">
         <v>1323</v>
       </c>
@@ -5710,7 +5714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>1327</v>
       </c>
@@ -5735,7 +5739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A215" s="5">
         <v>1332</v>
       </c>
@@ -5760,7 +5764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>1343</v>
       </c>
@@ -5785,7 +5789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A217" s="5">
         <v>1358</v>
       </c>
@@ -5810,7 +5814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>1361</v>
       </c>
@@ -5835,7 +5839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A219" s="5">
         <v>1370</v>
       </c>
@@ -5860,7 +5864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>1390</v>
       </c>
@@ -5885,7 +5889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A221" s="5">
         <v>1402</v>
       </c>
@@ -5910,7 +5914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>1403</v>
       </c>
@@ -5935,7 +5939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A223" s="5">
         <v>1404</v>
       </c>
@@ -5960,7 +5964,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>1411</v>
       </c>
@@ -5985,7 +5989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="225" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A225" s="5">
         <v>1437</v>
       </c>
@@ -6010,7 +6014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>1449</v>
       </c>
@@ -6035,7 +6039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A227" s="5">
         <v>1451</v>
       </c>
@@ -6060,7 +6064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>1462</v>
       </c>
@@ -6085,7 +6089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="229" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A229" s="5">
         <v>1472</v>
       </c>
@@ -6110,7 +6114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>1478</v>
       </c>
@@ -6135,7 +6139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="231" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A231" s="5">
         <v>1479</v>
       </c>
@@ -6160,7 +6164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>1480</v>
       </c>
@@ -6185,7 +6189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A233" s="5">
         <v>1482</v>
       </c>
@@ -6210,7 +6214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>1487</v>
       </c>
@@ -6235,7 +6239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A235" s="5">
         <v>1501</v>
       </c>
@@ -6260,7 +6264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>1503</v>
       </c>
@@ -6285,7 +6289,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A237" s="5">
         <v>1510</v>
       </c>
@@ -6310,7 +6314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>1514</v>
       </c>
@@ -6335,7 +6339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A239" s="5">
         <v>1527</v>
       </c>
@@ -6360,7 +6364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>1529</v>
       </c>
@@ -6385,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A241" s="5">
         <v>1530</v>
       </c>
@@ -6410,7 +6414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>1534</v>
       </c>
@@ -6435,7 +6439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A243" s="5">
         <v>1535</v>
       </c>
@@ -6460,7 +6464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>1547</v>
       </c>
@@ -6485,7 +6489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A245" s="5">
         <v>1552</v>
       </c>
@@ -6510,7 +6514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>1564</v>
       </c>
@@ -6535,7 +6539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A247" s="5">
         <v>1567</v>
       </c>
@@ -6560,7 +6564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>1568</v>
       </c>
@@ -6585,7 +6589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A249" s="5">
         <v>1573</v>
       </c>
@@ -6610,7 +6614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="250" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>1574</v>
       </c>
@@ -6635,7 +6639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A251" s="5">
         <v>1575</v>
       </c>
@@ -6660,7 +6664,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="252" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>1577</v>
       </c>
@@ -6685,7 +6689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A253" s="5">
         <v>1578</v>
       </c>
@@ -6710,7 +6714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>1579</v>
       </c>
@@ -6735,7 +6739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A255" s="5">
         <v>1580</v>
       </c>
@@ -6760,7 +6764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>1590</v>
       </c>
@@ -6785,7 +6789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A257" s="5">
         <v>1594</v>
       </c>
@@ -6810,7 +6814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>1609</v>
       </c>
@@ -6835,7 +6839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="259" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A259" s="5">
         <v>1611</v>
       </c>
@@ -6860,7 +6864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>1613</v>
       </c>
@@ -6885,7 +6889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="261" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A261" s="5">
         <v>1614</v>
       </c>
@@ -6910,7 +6914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="262" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>1621</v>
       </c>
@@ -6935,7 +6939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A263" s="5">
         <v>1622</v>
       </c>
@@ -6960,7 +6964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>1632</v>
       </c>
@@ -6985,7 +6989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A265" s="5">
         <v>1634</v>
       </c>
@@ -7010,7 +7014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>1635</v>
       </c>
@@ -7035,7 +7039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A267" s="5">
         <v>1645</v>
       </c>
@@ -7060,7 +7064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>1648</v>
       </c>
@@ -7085,7 +7089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A269" s="5">
         <v>1656</v>
       </c>
@@ -7110,7 +7114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>1664</v>
       </c>
@@ -7135,7 +7139,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="271" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A271" s="5">
         <v>1666</v>
       </c>
@@ -7160,7 +7164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>1684</v>
       </c>
@@ -7185,7 +7189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A273" s="5">
         <v>1689</v>
       </c>
@@ -7210,7 +7214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>1691</v>
       </c>
@@ -7235,7 +7239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A275" s="5">
         <v>1704</v>
       </c>
@@ -7260,7 +7264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>1721</v>
       </c>
@@ -7285,7 +7289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A277" s="5">
         <v>1724</v>
       </c>
@@ -7310,7 +7314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>1734</v>
       </c>
@@ -7335,7 +7339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="279" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A279" s="5">
         <v>1736</v>
       </c>
@@ -7360,7 +7364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="280" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>1737</v>
       </c>
@@ -7385,7 +7389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A281" s="5">
         <v>1738</v>
       </c>
@@ -7410,7 +7414,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="282" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>1740</v>
       </c>
@@ -7435,7 +7439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A283" s="5">
         <v>1741</v>
       </c>
@@ -7460,7 +7464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>1748</v>
       </c>
@@ -7485,7 +7489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A285" s="5">
         <v>1750</v>
       </c>
@@ -7510,7 +7514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="286" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>1752</v>
       </c>
@@ -7535,7 +7539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A287" s="5">
         <v>1757</v>
       </c>
@@ -7560,7 +7564,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="288" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>1759</v>
       </c>
@@ -7585,7 +7589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="289" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A289" s="5">
         <v>1760</v>
       </c>
@@ -7610,7 +7614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>1773</v>
       </c>
@@ -7635,7 +7639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="291" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A291" s="5">
         <v>1774</v>
       </c>
@@ -7660,7 +7664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>1812</v>
       </c>
@@ -7685,7 +7689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A293" s="5">
         <v>1831</v>
       </c>
@@ -7710,7 +7714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>1847</v>
       </c>
@@ -7735,7 +7739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A295" s="5">
         <v>1849</v>
       </c>
@@ -7760,7 +7764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>1860</v>
       </c>
@@ -7785,7 +7789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A297" s="5">
         <v>1869</v>
       </c>
@@ -7810,7 +7814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>1890</v>
       </c>
@@ -7835,7 +7839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A299" s="5">
         <v>1891</v>
       </c>
@@ -7860,7 +7864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="300" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>1897</v>
       </c>
@@ -7885,7 +7889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A301" s="5">
         <v>1902</v>
       </c>
@@ -7910,7 +7914,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>1903</v>
       </c>
@@ -7935,7 +7939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A303" s="5">
         <v>1910</v>
       </c>
@@ -7960,7 +7964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="304" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>1923</v>
       </c>
@@ -7985,7 +7989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A305" s="5">
         <v>1952</v>
       </c>
@@ -8010,7 +8014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="306" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>1953</v>
       </c>
@@ -8035,7 +8039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="307" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A307" s="5">
         <v>1955</v>
       </c>
@@ -8060,7 +8064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>1957</v>
       </c>
@@ -8085,7 +8089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="309" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A309" s="5">
         <v>1958</v>
       </c>
@@ -8110,7 +8114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>1959</v>
       </c>
@@ -8135,7 +8139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A311" s="5">
         <v>1963</v>
       </c>
@@ -8160,7 +8164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>1967</v>
       </c>
@@ -8185,7 +8189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A313" s="5">
         <v>1985</v>
       </c>
@@ -8210,7 +8214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>1987</v>
       </c>
@@ -8235,7 +8239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A315" s="5">
         <v>2004</v>
       </c>
@@ -8260,7 +8264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>2018</v>
       </c>
@@ -8285,7 +8289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="317" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A317" s="5">
         <v>2034</v>
       </c>
@@ -8310,7 +8314,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="318" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>2042</v>
       </c>
@@ -8335,7 +8339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="319" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A319" s="5">
         <v>2044</v>
       </c>
@@ -8360,7 +8364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>2047</v>
       </c>
@@ -8385,7 +8389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="321" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A321" s="5">
         <v>2048</v>
       </c>
@@ -8410,7 +8414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>2076</v>
       </c>
@@ -8435,7 +8439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A323" s="5">
         <v>2089</v>
       </c>
@@ -8460,7 +8464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="324" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>2090</v>
       </c>
@@ -8485,7 +8489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A325" s="5">
         <v>2096</v>
       </c>
@@ -8510,7 +8514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>2097</v>
       </c>
@@ -8535,7 +8539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A327" s="5">
         <v>2098</v>
       </c>
@@ -8560,7 +8564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>2099</v>
       </c>
@@ -8585,7 +8589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A329" s="5">
         <v>2104</v>
       </c>
@@ -8610,7 +8614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>2106</v>
       </c>
@@ -8635,7 +8639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A331" s="5">
         <v>2111</v>
       </c>
@@ -8660,7 +8664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="332" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>2119</v>
       </c>
@@ -8685,7 +8689,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="333" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A333" s="5">
         <v>2124</v>
       </c>
@@ -8710,7 +8714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>2142</v>
       </c>
@@ -8735,7 +8739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A335" s="5">
         <v>2156</v>
       </c>
@@ -8760,7 +8764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="336" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>2157</v>
       </c>
@@ -8785,7 +8789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A337" s="5">
         <v>2159</v>
       </c>
@@ -8810,7 +8814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="338" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>2160</v>
       </c>
@@ -8835,7 +8839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A339" s="5">
         <v>2165</v>
       </c>
@@ -8860,7 +8864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="340" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>2166</v>
       </c>
@@ -8885,7 +8889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A341" s="5">
         <v>2175</v>
       </c>
@@ -8910,7 +8914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>2179</v>
       </c>
@@ -8935,7 +8939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A343" s="5">
         <v>2183</v>
       </c>
@@ -8960,7 +8964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>2184</v>
       </c>
@@ -8985,7 +8989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="345" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A345" s="5">
         <v>2185</v>
       </c>
@@ -9010,7 +9014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>2186</v>
       </c>
@@ -9035,7 +9039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A347" s="5">
         <v>2204</v>
       </c>
@@ -9060,7 +9064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>2218</v>
       </c>
@@ -9085,7 +9089,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="349" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A349" s="5">
         <v>2221</v>
       </c>
@@ -9110,7 +9114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="350" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>2223</v>
       </c>
@@ -9135,7 +9139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="351" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A351" s="5">
         <v>2233</v>
       </c>
@@ -9160,7 +9164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>2238</v>
       </c>
@@ -9185,7 +9189,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="353" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A353" s="5">
         <v>2239</v>
       </c>
@@ -9210,7 +9214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>2241</v>
       </c>
@@ -9235,7 +9239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A355" s="5">
         <v>2248</v>
       </c>
@@ -9260,7 +9264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="356" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>2253</v>
       </c>
@@ -9285,7 +9289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A357" s="5">
         <v>2267</v>
       </c>
@@ -9310,7 +9314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>2307</v>
       </c>
@@ -9335,7 +9339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="359" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A359" s="5">
         <v>2308</v>
       </c>
@@ -9360,7 +9364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>2310</v>
       </c>
@@ -9385,7 +9389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A361" s="5">
         <v>2313</v>
       </c>
@@ -9410,7 +9414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>2326</v>
       </c>
@@ -9435,7 +9439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A363" s="5">
         <v>2327</v>
       </c>
@@ -9460,7 +9464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>2332</v>
       </c>
@@ -9485,7 +9489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A365" s="5">
         <v>2333</v>
       </c>
@@ -9510,7 +9514,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="366" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>2335</v>
       </c>
@@ -9535,7 +9539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A367" s="5">
         <v>2357</v>
       </c>
@@ -9560,7 +9564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>2361</v>
       </c>
@@ -9585,7 +9589,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="369" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A369" s="5">
         <v>2365</v>
       </c>
@@ -9610,7 +9614,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="370" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>2366</v>
       </c>
@@ -9635,7 +9639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A371" s="5">
         <v>2386</v>
       </c>
@@ -9660,7 +9664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>2389</v>
       </c>
@@ -9685,7 +9689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A373" s="5">
         <v>2400</v>
       </c>
@@ -9710,7 +9714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="374" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>2405</v>
       </c>
@@ -9735,7 +9739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A375" s="5">
         <v>2406</v>
       </c>
@@ -9760,7 +9764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>2412</v>
       </c>
@@ -9785,7 +9789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A377" s="5">
         <v>2415</v>
       </c>
@@ -9810,7 +9814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="378" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>2416</v>
       </c>
@@ -9835,7 +9839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A379" s="5">
         <v>2422</v>
       </c>
@@ -9860,7 +9864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>2425</v>
       </c>
@@ -9885,7 +9889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A381" s="5">
         <v>2427</v>
       </c>
@@ -9910,7 +9914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>2430</v>
       </c>
@@ -9935,7 +9939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A383" s="5">
         <v>2434</v>
       </c>
@@ -9960,7 +9964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="384" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>2443</v>
       </c>
@@ -9985,7 +9989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A385" s="5">
         <v>2457</v>
       </c>
@@ -10010,7 +10014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>2463</v>
       </c>
@@ -10035,7 +10039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A387" s="5">
         <v>2477</v>
       </c>
@@ -10060,7 +10064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>2486</v>
       </c>
@@ -10085,7 +10089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="389" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A389" s="5">
         <v>2487</v>
       </c>
@@ -10110,7 +10114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>2490</v>
       </c>
@@ -10135,7 +10139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A391" s="5">
         <v>2498</v>
       </c>
@@ -10160,7 +10164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>2514</v>
       </c>
@@ -10185,7 +10189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A393" s="5">
         <v>2545</v>
       </c>
@@ -10210,7 +10214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>2550</v>
       </c>
@@ -10235,7 +10239,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A395" s="5">
         <v>2552</v>
       </c>
@@ -10260,7 +10264,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="396" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>2563</v>
       </c>
@@ -10285,7 +10289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="397" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A397" s="5">
         <v>2566</v>
       </c>
@@ -10310,7 +10314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>2576</v>
       </c>
@@ -10335,7 +10339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A399" s="5">
         <v>2608</v>
       </c>
@@ -10360,7 +10364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>2611</v>
       </c>
@@ -10385,7 +10389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A401" s="5">
         <v>2616</v>
       </c>
@@ -10410,7 +10414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>2618</v>
       </c>
@@ -10435,7 +10439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A403" s="5">
         <v>2633</v>
       </c>
@@ -10460,7 +10464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>2635</v>
       </c>
@@ -10485,7 +10489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A405" s="5">
         <v>2638</v>
       </c>
@@ -10510,7 +10514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>2641</v>
       </c>
@@ -10535,7 +10539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="407" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A407" s="5">
         <v>2647</v>
       </c>
@@ -10560,7 +10564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="408" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>2663</v>
       </c>
@@ -10585,7 +10589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="409" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A409" s="5">
         <v>2667</v>
       </c>
@@ -10610,7 +10614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="410" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>2671</v>
       </c>
@@ -10635,7 +10639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="411" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A411" s="5">
         <v>2680</v>
       </c>
@@ -10660,7 +10664,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>2682</v>
       </c>
@@ -10685,7 +10689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="413" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A413" s="5">
         <v>2684</v>
       </c>
@@ -10710,7 +10714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="414" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>2685</v>
       </c>
@@ -10735,7 +10739,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="415" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A415" s="5">
         <v>2688</v>
       </c>
@@ -10760,7 +10764,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="416" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>2690</v>
       </c>
@@ -10785,7 +10789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="417" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A417" s="5">
         <v>2693</v>
       </c>
@@ -10810,7 +10814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>2707</v>
       </c>
@@ -10835,7 +10839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A419" s="5">
         <v>2720</v>
       </c>
@@ -10860,7 +10864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="420" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>2731</v>
       </c>
@@ -10885,7 +10889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="421" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A421" s="5">
         <v>2763</v>
       </c>
@@ -10910,7 +10914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="422" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>2774</v>
       </c>
@@ -10935,7 +10939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A423" s="5">
         <v>2777</v>
       </c>
@@ -10960,7 +10964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="424" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>2783</v>
       </c>
@@ -10985,7 +10989,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A425" s="5">
         <v>2784</v>
       </c>
@@ -11010,7 +11014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="426" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>2789</v>
       </c>
@@ -11035,7 +11039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="427" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A427" s="5">
         <v>2804</v>
       </c>
@@ -11060,7 +11064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="428" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>2833</v>
       </c>
@@ -11085,7 +11089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="429" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A429" s="5">
         <v>2834</v>
       </c>
@@ -11110,7 +11114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="430" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>2835</v>
       </c>
@@ -11135,7 +11139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="431" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A431" s="5">
         <v>2836</v>
       </c>
@@ -11160,7 +11164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="432" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>2838</v>
       </c>
@@ -11185,7 +11189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="433" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A433" s="5">
         <v>2848</v>
       </c>
@@ -11210,7 +11214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="434" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>2850</v>
       </c>
@@ -11235,7 +11239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A435" s="5">
         <v>2858</v>
       </c>
@@ -11260,7 +11264,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="436" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>2872</v>
       </c>
@@ -11285,7 +11289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A437" s="5">
         <v>2876</v>
       </c>
@@ -11310,7 +11314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="438" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>2887</v>
       </c>
@@ -11335,7 +11339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="439" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A439" s="5">
         <v>2895</v>
       </c>
@@ -11360,7 +11364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="440" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>2899</v>
       </c>
@@ -11385,7 +11389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="441" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A441" s="5">
         <v>2908</v>
       </c>
@@ -11410,7 +11414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>2929</v>
       </c>
@@ -11435,7 +11439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="443" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A443" s="5">
         <v>2930</v>
       </c>
@@ -11460,7 +11464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="444" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>2933</v>
       </c>
@@ -11485,7 +11489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="445" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A445" s="5">
         <v>2937</v>
       </c>
@@ -11510,7 +11514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="446" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>2938</v>
       </c>
@@ -11535,7 +11539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A447" s="5">
         <v>2940</v>
       </c>
@@ -11560,7 +11564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="448" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>2941</v>
       </c>
@@ -11585,7 +11589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="449" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A449" s="5">
         <v>2959</v>
       </c>
@@ -11610,7 +11614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="450" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>2961</v>
       </c>
@@ -11635,7 +11639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="451" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A451" s="5">
         <v>2965</v>
       </c>
@@ -11660,7 +11664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="452" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>2974</v>
       </c>
@@ -11685,7 +11689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="453" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A453" s="5">
         <v>2975</v>
       </c>
@@ -11710,7 +11714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="454" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>2977</v>
       </c>
@@ -11735,7 +11739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="455" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A455" s="5">
         <v>2978</v>
       </c>
@@ -11760,7 +11764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>2980</v>
       </c>
@@ -11785,7 +11789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="457" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A457" s="5">
         <v>2987</v>
       </c>
@@ -11810,7 +11814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="458" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>2989</v>
       </c>
@@ -11835,7 +11839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="459" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A459" s="5">
         <v>2991</v>
       </c>
@@ -11860,7 +11864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="460" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>2996</v>
       </c>
@@ -11885,7 +11889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="461" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A461" s="5">
         <v>2999</v>
       </c>
@@ -11910,7 +11914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="462" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>3006</v>
       </c>
@@ -11935,7 +11939,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="463" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A463" s="5">
         <v>3007</v>
       </c>
@@ -11960,7 +11964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="464" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>3010</v>
       </c>
@@ -11985,7 +11989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="465" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A465" s="5">
         <v>3034</v>
       </c>
@@ -12010,7 +12014,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>3037</v>
       </c>
@@ -12035,7 +12039,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="467" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A467" s="5">
         <v>3039</v>
       </c>
@@ -12060,7 +12064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>3051</v>
       </c>
@@ -12085,7 +12089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="469" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A469" s="5">
         <v>3055</v>
       </c>
@@ -12110,7 +12114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="470" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>3059</v>
       </c>
@@ -12135,7 +12139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="471" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A471" s="5">
         <v>3063</v>
       </c>
@@ -12160,7 +12164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="472" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>3076</v>
       </c>
@@ -12185,7 +12189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A473" s="5">
         <v>3079</v>
       </c>
@@ -12210,7 +12214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="474" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>3090</v>
       </c>
@@ -12235,7 +12239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="475" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A475" s="5">
         <v>3100</v>
       </c>
@@ -12260,7 +12264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="476" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>3106</v>
       </c>
@@ -12285,7 +12289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="477" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A477" s="5">
         <v>3114</v>
       </c>
@@ -12310,7 +12314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="478" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>3120</v>
       </c>
@@ -12335,7 +12339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="479" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A479" s="5">
         <v>3126</v>
       </c>
@@ -12360,7 +12364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>3136</v>
       </c>
@@ -12385,7 +12389,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="481" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A481" s="5">
         <v>3137</v>
       </c>
@@ -12410,7 +12414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>3143</v>
       </c>
@@ -12435,7 +12439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="483" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A483" s="5">
         <v>3148</v>
       </c>
@@ -12460,7 +12464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>3153</v>
       </c>
@@ -12485,7 +12489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A485" s="5">
         <v>3161</v>
       </c>
@@ -12510,7 +12514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>3165</v>
       </c>
@@ -12535,7 +12539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A487" s="5">
         <v>3191</v>
       </c>
@@ -12560,7 +12564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="488" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>3195</v>
       </c>
@@ -12585,7 +12589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A489" s="5">
         <v>3205</v>
       </c>
@@ -12610,7 +12614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>3206</v>
       </c>
@@ -12635,7 +12639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="491" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A491" s="5">
         <v>3207</v>
       </c>
@@ -12660,7 +12664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>3216</v>
       </c>
@@ -12685,7 +12689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A493" s="5">
         <v>3223</v>
       </c>
@@ -12710,7 +12714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="494" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>3228</v>
       </c>
@@ -12735,7 +12739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="495" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A495" s="5">
         <v>3240</v>
       </c>
@@ -12760,7 +12764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="496" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>3244</v>
       </c>
@@ -12785,7 +12789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A497" s="5">
         <v>3267</v>
       </c>
@@ -12810,7 +12814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>3268</v>
       </c>
@@ -12835,7 +12839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="499" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A499" s="5">
         <v>3272</v>
       </c>
@@ -12860,7 +12864,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="500" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>3282</v>
       </c>
@@ -12885,7 +12889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="501" spans="1:9" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:9" ht="13" x14ac:dyDescent="0.25">
       <c r="A501" s="5">
         <v>3299</v>
       </c>
